--- a/docs/ST3/ST3_13.11.2024_output.xlsx
+++ b/docs/ST3/ST3_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731672268.3700325</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731672269.0808208</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672268.3700325.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672269.0808208.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>135.12</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>135.69</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5699999999999932</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731672270.728367</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731672271.8147693</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672270.728367.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672271.8147693.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>135.68</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.71</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731672285.9811833</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731672285.9811833.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+          <t>./test_images/GAZP1731672285.9811833.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>136.05</v>
       </c>
-      <c r="J5" t="n">
-        <v>136.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>136.39</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.339999999999975</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731672292.172194</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731672293.498549</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731672292.172194.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731672293.498549.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6988</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6990</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-2</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731672296.8995895</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731672298.0598893</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731672296.8995895.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731672298.0598893.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7022</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7013</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-9</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731672314.3987758</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731672316.270584</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672314.3987758.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672316.270584.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>485.55</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>487.45</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.899999999999977</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731672316.809787</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731672317.7483897</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672316.809787.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672317.7483897.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>487.35</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>489.15</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731672318.083147</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731672319.1154828</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672318.083147.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672319.1154828.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>488.45</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>490</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.550000000000011</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731672327.5480928</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731672328.3439472</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672327.5480928.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672328.3439472.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>489.35</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>490.15</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -999,101 +1069,113 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731672329.5532188</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731672390.518869</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672329.5532188.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672390.518869.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731672330.9140334</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731672332.8195627</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672330.9140334.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672332.8195627.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>489.95</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>488.75</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-1.199999999999989</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -1101,51 +1183,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731672332.8354928</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731672333.913158</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672332.8354928.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672333.913158.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>488.75</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>489.2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1153,51 +1241,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731672335.9918778</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731672336.947414</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672335.9918778.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672336.947414.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>489.95</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>491.7</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.75</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1205,95 +1299,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731672338.706111</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731672338.706111.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+          <t>./test_images/ROSN1731672338.706111.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>492.9</v>
       </c>
-      <c r="J16" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>493.35</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.4500000000000455</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731672342.7785583</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731672343.142566</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672342.7785583.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672343.142566.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>925.6</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>928.4</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1301,51 +1407,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731672343.794809</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731672345.691955</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672343.794809.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672345.691955.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>927.4</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>932.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>4.800000000000068</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -1353,51 +1465,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731672346.0250685</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731672347.38931</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672346.0250685.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672347.38931.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>930</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>928.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-1.600000000000023</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1405,51 +1523,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731672349.2185442</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731672349.4083853</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672349.2185442.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672349.4083853.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>927.8</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>926.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1457,51 +1581,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731672360.3377938</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731672362.226094</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672360.3377938.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672362.226094.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>929.8</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>932.8</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>3</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1509,51 +1639,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731672362.34708</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731672362.924079</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672362.34708.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672362.924079.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>932</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>933.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1561,51 +1697,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731672364.4541996</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731672365.5129738</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672364.4541996.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672365.5129738.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>37.68</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>37.825</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.1450000000000031</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1613,51 +1755,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731672366.6850684</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731672367.9385557</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672366.6850684.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672367.9385557.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>37.745</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>37.925</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1665,51 +1813,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731672368.774642</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731672369.5935524</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672368.774642.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672369.5935524.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>37.89</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>38.12</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.2299999999999969</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -1717,51 +1871,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731672371.1682665</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731672377.9672515</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672371.1682665.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672377.9672515.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>38.32</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>38.22</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.1000000000000014</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -1769,51 +1929,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731672386.3615742</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731672387.0711873</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672386.3615742.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672387.0711873.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>38.385</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>38.49</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.105000000000004</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1821,95 +1987,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731672387.3825629</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731672387.3825629.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+          <t>./test_images/MAGN1731672387.3825629.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>38.44</v>
       </c>
-      <c r="J28" t="n">
-        <v>38.44</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>38.405</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.03499999999999659</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731672389.5201228</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731672392.199519</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672389.5201228.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672392.199519.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1231.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1230.2</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-1</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1917,51 +2095,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731672396.0598743</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731672397.3127685</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672396.0598743.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672397.3127685.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1236.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1235.6</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-1</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1969,51 +2153,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731672404.8165212</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731672405.4176533</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672404.8165212.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672405.4176533.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1222.6</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1221.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2021,51 +2211,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731672407.2388906</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731672410.7779508</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672407.2388906.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672410.7779508.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1217.4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1226.2</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-8.799999999999955</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -2073,51 +2269,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731672414.599598</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731672416.38022</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672414.599598.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672416.38022.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>80.88</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>80.95</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.07000000000000739</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2125,51 +2327,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731672417.0955193</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731672418.1677613</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672417.0955193.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672418.1677613.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>80.98999999999999</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>81.15000000000001</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.1600000000000108</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2177,51 +2385,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731672420.5694172</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731672421.8224773</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672420.5694172.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672421.8224773.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>81.19</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>81.15000000000001</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2229,51 +2443,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731672430.4438884</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731672431.831566</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672430.4438884.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672431.831566.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>80.34999999999999</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>80.23</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1199999999999903</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2281,51 +2501,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731672432.6532671</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731672434.0451488</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672432.6532671.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731672434.0451488.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>80.16</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>80.33</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.1700000000000017</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -2333,51 +2559,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731672439.7198877</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731672441.0199027</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672439.7198877.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672441.0199027.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>14.151</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>14.13</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.02099999999999902</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2385,51 +2617,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731672443.5275495</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731672444.518697</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672443.5275495.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672444.518697.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>14.212</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>14.238</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.0259999999999998</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2437,51 +2675,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731672445.9529657</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731672448.2514896</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672445.9529657.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672448.2514896.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>14.245</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>14.206</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.0389999999999997</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -2489,51 +2733,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731672451.9123328</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731672454.9293897</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672451.9123328.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672454.9293897.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>14.261</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>14.212</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.04899999999999949</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -2541,51 +2791,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731672457.7596488</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731672458.97263</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672457.7596488.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672458.97263.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>14.178</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>14.191</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.0129999999999999</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2593,51 +2849,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731672460.3856902</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731672461.5731153</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672460.3856902.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672461.5731153.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>14.238</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>14.212</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.0259999999999998</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2645,51 +2907,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731672462.476597</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731672462.6666124</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672462.476597.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672462.6666124.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>14.268</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>14.353</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.08499999999999908</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -2697,95 +2965,107 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731672463.6088762</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731672463.6088762.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+          <t>./test_images/AFKS1731672463.6088762.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>14.355</v>
       </c>
-      <c r="J45" t="n">
-        <v>14.355</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>14.369</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.01399999999999935</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731672470.437558</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731672471.7420976</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731672470.437558.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731672471.7420976.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>105.17</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>105.77</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.5999999999999943</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -2793,51 +3073,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731672476.1472375</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731672478.5430956</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731672476.1472375.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731672478.5430956.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>105.71</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>105.18</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.5299999999999869</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -2845,51 +3131,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731672486.4888816</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731672487.336774</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731672486.4888816.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731672487.336774.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>105.25</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>105.55</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2897,51 +3189,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731672488.0907583</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731672489.092561</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731672488.0907583.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731672489.092561.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>105.65</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>106.03</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2949,51 +3247,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731672490.2395024</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731672492.1068912</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731672490.2395024.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731672492.1068912.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>347.75</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>348.35</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3001,51 +3305,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731672507.082924</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731672507.941158</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731672507.082924.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731672507.941158.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>349.34</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>350.18</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.8400000000000318</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -3053,95 +3363,107 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731672509.858816</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731672509.858816.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+          <t>./test_images/BSPB1731672509.858816.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>350.93</v>
       </c>
-      <c r="J52" t="n">
-        <v>350.93</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>351.71</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7799999999999727</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731672517.1727803</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731672518.0347333</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672517.1727803.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672518.0347333.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>2780</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>2784.55</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>4.550000000000182</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3149,51 +3471,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731672519.7686796</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731672521.3176618</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672519.7686796.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672521.3176618.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>2789.05</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>2788.5</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.5500000000001819</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3201,51 +3529,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731672531.2782347</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731672532.523585</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672531.2782347.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672532.523585.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>2778.5</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>2781.05</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-2.550000000000182</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -3253,51 +3587,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731672535.5027156</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731672536.4737659</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672535.5027156.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672536.4737659.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>2790.2</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>2794.9</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>4.700000000000273</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3305,95 +3645,107 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731672536.9413817</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731672536.9413817.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+          <t>./test_images/MXI1731672536.9413817.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>2792.4</v>
       </c>
-      <c r="J57" t="n">
-        <v>2792.4</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>2795.2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2.799999999999727</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731672541.784045</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731672542.7446966</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672541.784045.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672542.7446966.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>594.1</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>595</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.8999999999999773</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3401,51 +3753,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731672544.2780323</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731672546.8652673</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672544.2780323.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672546.8652673.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>595.4</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>595.5</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3453,51 +3811,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731672550.6308222</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731672550.8306868</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672550.6308222.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672550.8306868.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>591.7</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>590.3</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3505,51 +3869,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731672552.1225927</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731672553.1762335</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672552.1225927.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/TATN1731672553.1762335.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>589.6</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>590.8</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-1.199999999999932</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3611,19 +3981,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.03699999999999903</v>
+        <v>-0.02299999999999969</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.004624999999999879</v>
+        <v>-0.002874999999999961</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="3">
@@ -3633,19 +4003,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.14999999999992</v>
+        <v>6.599999999999966</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7687499999999901</v>
+        <v>0.8249999999999957</v>
       </c>
       <c r="E3" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="F3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -3655,19 +4025,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5600000000000023</v>
+        <v>0.5250000000000057</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09333333333333371</v>
+        <v>0.08750000000000095</v>
       </c>
       <c r="E4" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -3677,19 +4047,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.150000000000091</v>
+        <v>8.949999999999818</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.025000000000015</v>
+        <v>1.491666666666636</v>
       </c>
       <c r="E5" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -3809,19 +4179,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2400000000000091</v>
+        <v>0.5399999999999636</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.08000000000000303</v>
+        <v>0.1799999999999879</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
@@ -3831,19 +4201,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5999999999999943</v>
+        <v>0.9399999999999693</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1999999999999981</v>
+        <v>0.3133333333333231</v>
       </c>
       <c r="E12" t="n">
-        <v>0.44</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="13">
